--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.9993847345285</v>
+        <v>37.63904266666666</v>
       </c>
       <c r="H2">
-        <v>30.9993847345285</v>
+        <v>112.917128</v>
       </c>
       <c r="I2">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="J2">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.45170379307354</v>
+        <v>2.481489333333333</v>
       </c>
       <c r="N2">
-        <v>1.45170379307354</v>
+        <v>7.444467999999999</v>
       </c>
       <c r="O2">
-        <v>0.156091865888787</v>
+        <v>0.2345069082418988</v>
       </c>
       <c r="P2">
-        <v>0.156091865888787</v>
+        <v>0.2345069082418987</v>
       </c>
       <c r="Q2">
-        <v>45.00192440206101</v>
+        <v>93.40088289421152</v>
       </c>
       <c r="R2">
-        <v>45.00192440206101</v>
+        <v>840.6079460479037</v>
       </c>
       <c r="S2">
-        <v>0.07203263683462291</v>
+        <v>0.1137410273566398</v>
       </c>
       <c r="T2">
-        <v>0.07203263683462291</v>
+        <v>0.1137410273566398</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.9993847345285</v>
+        <v>37.63904266666666</v>
       </c>
       <c r="H3">
-        <v>30.9993847345285</v>
+        <v>112.917128</v>
       </c>
       <c r="I3">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="J3">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.20742042878663</v>
+        <v>7.245227</v>
       </c>
       <c r="N3">
-        <v>7.20742042878663</v>
+        <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.7749650502685403</v>
+        <v>0.6846919551326144</v>
       </c>
       <c r="P3">
-        <v>0.7749650502685403</v>
+        <v>0.6846919551326142</v>
       </c>
       <c r="Q3">
-        <v>223.4255988154571</v>
+        <v>272.7034081826853</v>
       </c>
       <c r="R3">
-        <v>223.4255988154571</v>
+        <v>2454.330673644168</v>
       </c>
       <c r="S3">
-        <v>0.3576277066563602</v>
+        <v>0.3320907131626057</v>
       </c>
       <c r="T3">
-        <v>0.3576277066563602</v>
+        <v>0.3320907131626057</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.9993847345285</v>
+        <v>37.63904266666666</v>
       </c>
       <c r="H4">
-        <v>30.9993847345285</v>
+        <v>112.917128</v>
       </c>
       <c r="I4">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="J4">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.641192516667742</v>
+        <v>0.2001876666666667</v>
       </c>
       <c r="N4">
-        <v>0.641192516667742</v>
+        <v>0.600563</v>
       </c>
       <c r="O4">
-        <v>0.0689430838426727</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="P4">
-        <v>0.0689430838426727</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="Q4">
-        <v>19.87657351308391</v>
+        <v>7.53487212700711</v>
       </c>
       <c r="R4">
-        <v>19.87657351308391</v>
+        <v>67.81384914306399</v>
       </c>
       <c r="S4">
-        <v>0.03181557278735142</v>
+        <v>0.009175760123139183</v>
       </c>
       <c r="T4">
-        <v>0.03181557278735142</v>
+        <v>0.009175760123139181</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.0362804258851</v>
+        <v>37.63904266666666</v>
       </c>
       <c r="H5">
-        <v>17.0362804258851</v>
+        <v>112.917128</v>
       </c>
       <c r="I5">
-        <v>0.253612553501848</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="J5">
-        <v>0.253612553501848</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.45170379307354</v>
+        <v>0.6548283333333333</v>
       </c>
       <c r="N5">
-        <v>1.45170379307354</v>
+        <v>1.964485</v>
       </c>
       <c r="O5">
-        <v>0.156091865888787</v>
+        <v>0.06188290468003712</v>
       </c>
       <c r="P5">
-        <v>0.156091865888787</v>
+        <v>0.06188290468003711</v>
       </c>
       <c r="Q5">
-        <v>24.7316329141219</v>
+        <v>24.64711157767555</v>
       </c>
       <c r="R5">
-        <v>24.7316329141219</v>
+        <v>221.82400419908</v>
       </c>
       <c r="S5">
-        <v>0.03958685668892329</v>
+        <v>0.03001457486642546</v>
       </c>
       <c r="T5">
-        <v>0.03958685668892329</v>
+        <v>0.03001457486642546</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.0362804258851</v>
+        <v>17.57434666666667</v>
       </c>
       <c r="H6">
-        <v>17.0362804258851</v>
+        <v>52.72304</v>
       </c>
       <c r="I6">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="J6">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.20742042878663</v>
+        <v>2.481489333333333</v>
       </c>
       <c r="N6">
-        <v>7.20742042878663</v>
+        <v>7.444467999999999</v>
       </c>
       <c r="O6">
-        <v>0.7749650502685403</v>
+        <v>0.2345069082418988</v>
       </c>
       <c r="P6">
-        <v>0.7749650502685403</v>
+        <v>0.2345069082418987</v>
       </c>
       <c r="Q6">
-        <v>122.7876355720621</v>
+        <v>43.61055379363555</v>
       </c>
       <c r="R6">
-        <v>122.7876355720621</v>
+        <v>392.4949841427199</v>
       </c>
       <c r="S6">
-        <v>0.1965408652732925</v>
+        <v>0.05310773344293009</v>
       </c>
       <c r="T6">
-        <v>0.1965408652732925</v>
+        <v>0.05310773344293007</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.0362804258851</v>
+        <v>17.57434666666667</v>
       </c>
       <c r="H7">
-        <v>17.0362804258851</v>
+        <v>52.72304</v>
       </c>
       <c r="I7">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="J7">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.641192516667742</v>
+        <v>7.245227</v>
       </c>
       <c r="N7">
-        <v>0.641192516667742</v>
+        <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.0689430838426727</v>
+        <v>0.6846919551326144</v>
       </c>
       <c r="P7">
-        <v>0.0689430838426727</v>
+        <v>0.6846919551326142</v>
       </c>
       <c r="Q7">
-        <v>10.92353552093066</v>
+        <v>127.3301309766933</v>
       </c>
       <c r="R7">
-        <v>10.92353552093066</v>
+        <v>1145.97117879024</v>
       </c>
       <c r="S7">
-        <v>0.01748483153963222</v>
+        <v>0.1550591328686698</v>
       </c>
       <c r="T7">
-        <v>0.01748483153963222</v>
+        <v>0.1550591328686697</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.600948696868</v>
+        <v>17.57434666666667</v>
       </c>
       <c r="H8">
-        <v>16.600948696868</v>
+        <v>52.72304</v>
       </c>
       <c r="I8">
-        <v>0.2471319375072528</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="J8">
-        <v>0.2471319375072528</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.45170379307354</v>
+        <v>0.2001876666666667</v>
       </c>
       <c r="N8">
-        <v>1.45170379307354</v>
+        <v>0.600563</v>
       </c>
       <c r="O8">
-        <v>0.156091865888787</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="P8">
-        <v>0.156091865888787</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="Q8">
-        <v>24.09966019186251</v>
+        <v>3.518167452391111</v>
       </c>
       <c r="R8">
-        <v>24.09966019186251</v>
+        <v>31.66350707152</v>
       </c>
       <c r="S8">
-        <v>0.0385752852462182</v>
+        <v>0.00428432759999592</v>
       </c>
       <c r="T8">
-        <v>0.0385752852462182</v>
+        <v>0.004284327599995919</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.600948696868</v>
+        <v>17.57434666666667</v>
       </c>
       <c r="H9">
-        <v>16.600948696868</v>
+        <v>52.72304</v>
       </c>
       <c r="I9">
-        <v>0.2471319375072528</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="J9">
-        <v>0.2471319375072528</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.20742042878663</v>
+        <v>0.6548283333333333</v>
       </c>
       <c r="N9">
-        <v>7.20742042878663</v>
+        <v>1.964485</v>
       </c>
       <c r="O9">
-        <v>0.7749650502685403</v>
+        <v>0.06188290468003712</v>
       </c>
       <c r="P9">
-        <v>0.7749650502685403</v>
+        <v>0.06188290468003711</v>
       </c>
       <c r="Q9">
-        <v>119.6500167750452</v>
+        <v>11.50818013715556</v>
       </c>
       <c r="R9">
-        <v>119.6500167750452</v>
+        <v>103.5736212344</v>
       </c>
       <c r="S9">
-        <v>0.1915186143732699</v>
+        <v>0.01401434538138045</v>
       </c>
       <c r="T9">
-        <v>0.1915186143732699</v>
+        <v>0.01401434538138044</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.600948696868</v>
+        <v>19.168158</v>
       </c>
       <c r="H10">
-        <v>16.600948696868</v>
+        <v>57.504474</v>
       </c>
       <c r="I10">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="J10">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.641192516667742</v>
+        <v>2.481489333333333</v>
       </c>
       <c r="N10">
-        <v>0.641192516667742</v>
+        <v>7.444467999999999</v>
       </c>
       <c r="O10">
-        <v>0.0689430838426727</v>
+        <v>0.2345069082418988</v>
       </c>
       <c r="P10">
-        <v>0.0689430838426727</v>
+        <v>0.2345069082418987</v>
       </c>
       <c r="Q10">
-        <v>10.64440407401686</v>
+        <v>47.56557961664799</v>
       </c>
       <c r="R10">
-        <v>10.64440407401686</v>
+        <v>428.090216549832</v>
       </c>
       <c r="S10">
-        <v>0.01703803788776468</v>
+        <v>0.05792405515630176</v>
       </c>
       <c r="T10">
-        <v>0.01703803788776468</v>
+        <v>0.05792405515630174</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.53782285986993</v>
+        <v>19.168158</v>
       </c>
       <c r="H11">
-        <v>2.53782285986993</v>
+        <v>57.504474</v>
       </c>
       <c r="I11">
-        <v>0.0377795927125646</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="J11">
-        <v>0.0377795927125646</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.45170379307354</v>
+        <v>7.245227</v>
       </c>
       <c r="N11">
-        <v>1.45170379307354</v>
+        <v>21.735681</v>
       </c>
       <c r="O11">
-        <v>0.156091865888787</v>
+        <v>0.6846919551326144</v>
       </c>
       <c r="P11">
-        <v>0.156091865888787</v>
+        <v>0.6846919551326142</v>
       </c>
       <c r="Q11">
-        <v>3.684167071821916</v>
+        <v>138.877655881866</v>
       </c>
       <c r="R11">
-        <v>3.684167071821916</v>
+        <v>1249.898902936794</v>
       </c>
       <c r="S11">
-        <v>0.005897087119022629</v>
+        <v>0.169121391226852</v>
       </c>
       <c r="T11">
-        <v>0.005897087119022629</v>
+        <v>0.169121391226852</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.53782285986993</v>
+        <v>19.168158</v>
       </c>
       <c r="H12">
-        <v>2.53782285986993</v>
+        <v>57.504474</v>
       </c>
       <c r="I12">
-        <v>0.0377795927125646</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="J12">
-        <v>0.0377795927125646</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>7.20742042878663</v>
+        <v>0.2001876666666667</v>
       </c>
       <c r="N12">
-        <v>7.20742042878663</v>
+        <v>0.600563</v>
       </c>
       <c r="O12">
-        <v>0.7749650502685403</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="P12">
-        <v>0.7749650502685403</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="Q12">
-        <v>18.29115632486824</v>
+        <v>3.837228824318</v>
       </c>
       <c r="R12">
-        <v>18.29115632486824</v>
+        <v>34.535059418862</v>
       </c>
       <c r="S12">
-        <v>0.0292778639656176</v>
+        <v>0.00467287176690585</v>
       </c>
       <c r="T12">
-        <v>0.0292778639656176</v>
+        <v>0.004672871766905849</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.53782285986993</v>
+        <v>19.168158</v>
       </c>
       <c r="H13">
-        <v>2.53782285986993</v>
+        <v>57.504474</v>
       </c>
       <c r="I13">
-        <v>0.0377795927125646</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="J13">
-        <v>0.0377795927125646</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.641192516667742</v>
+        <v>0.6548283333333333</v>
       </c>
       <c r="N13">
-        <v>0.641192516667742</v>
+        <v>1.964485</v>
       </c>
       <c r="O13">
-        <v>0.0689430838426727</v>
+        <v>0.06188290468003712</v>
       </c>
       <c r="P13">
-        <v>0.0689430838426727</v>
+        <v>0.06188290468003711</v>
       </c>
       <c r="Q13">
-        <v>1.627233026376927</v>
+        <v>12.55185295621</v>
       </c>
       <c r="R13">
-        <v>1.627233026376927</v>
+        <v>112.96667660589</v>
       </c>
       <c r="S13">
-        <v>0.002604641627924367</v>
+        <v>0.01528530144715881</v>
       </c>
       <c r="T13">
-        <v>0.002604641627924367</v>
+        <v>0.01528530144715881</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.221194</v>
+      </c>
+      <c r="H14">
+        <v>9.663582</v>
+      </c>
+      <c r="I14">
+        <v>0.04150876560099527</v>
+      </c>
+      <c r="J14">
+        <v>0.04150876560099527</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.481489333333333</v>
+      </c>
+      <c r="N14">
+        <v>7.444467999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.2345069082418988</v>
+      </c>
+      <c r="P14">
+        <v>0.2345069082418987</v>
+      </c>
+      <c r="Q14">
+        <v>7.993358551597332</v>
+      </c>
+      <c r="R14">
+        <v>71.94022696437598</v>
+      </c>
+      <c r="S14">
+        <v>0.009734092286027082</v>
+      </c>
+      <c r="T14">
+        <v>0.00973409228602708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.221194</v>
+      </c>
+      <c r="H15">
+        <v>9.663582</v>
+      </c>
+      <c r="I15">
+        <v>0.04150876560099527</v>
+      </c>
+      <c r="J15">
+        <v>0.04150876560099527</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.245227</v>
+      </c>
+      <c r="N15">
+        <v>21.735681</v>
+      </c>
+      <c r="O15">
+        <v>0.6846919551326144</v>
+      </c>
+      <c r="P15">
+        <v>0.6846919551326142</v>
+      </c>
+      <c r="Q15">
+        <v>23.338281741038</v>
+      </c>
+      <c r="R15">
+        <v>210.044535669342</v>
+      </c>
+      <c r="S15">
+        <v>0.02842071787448686</v>
+      </c>
+      <c r="T15">
+        <v>0.02842071787448685</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.221194</v>
+      </c>
+      <c r="H16">
+        <v>9.663582</v>
+      </c>
+      <c r="I16">
+        <v>0.04150876560099527</v>
+      </c>
+      <c r="J16">
+        <v>0.04150876560099527</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2001876666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.600563</v>
+      </c>
+      <c r="O16">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="P16">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="Q16">
+        <v>0.6448433107406667</v>
+      </c>
+      <c r="R16">
+        <v>5.803589796666</v>
+      </c>
+      <c r="S16">
+        <v>0.0007852724554089403</v>
+      </c>
+      <c r="T16">
+        <v>0.0007852724554089402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.221194</v>
+      </c>
+      <c r="H17">
+        <v>9.663582</v>
+      </c>
+      <c r="I17">
+        <v>0.04150876560099527</v>
+      </c>
+      <c r="J17">
+        <v>0.04150876560099527</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6548283333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.964485</v>
+      </c>
+      <c r="O17">
+        <v>0.06188290468003712</v>
+      </c>
+      <c r="P17">
+        <v>0.06188290468003711</v>
+      </c>
+      <c r="Q17">
+        <v>2.109329098363333</v>
+      </c>
+      <c r="R17">
+        <v>18.98396188527</v>
+      </c>
+      <c r="S17">
+        <v>0.002568682985072394</v>
+      </c>
+      <c r="T17">
+        <v>0.002568682985072394</v>
       </c>
     </row>
   </sheetData>
